--- a/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.64828331150386</v>
+        <v>93.79239259390484</v>
       </c>
       <c r="D2" t="n">
-        <v>3.976685840453752</v>
+        <v>3.983824298876045</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.43682459069719</v>
+        <v>92.38769893749981</v>
       </c>
       <c r="D3" t="n">
-        <v>3.902316608979239</v>
+        <v>3.118846305239346</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.41176128833837</v>
+        <v>91.24828735593627</v>
       </c>
       <c r="D4" t="n">
-        <v>3.803152091154167</v>
+        <v>3.482115581717284</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.79451854684696</v>
+        <v>90.08385652607585</v>
       </c>
       <c r="D5" t="n">
-        <v>3.779670694765574</v>
+        <v>3.230389187377414</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.5088888900812</v>
+        <v>89.13951859169799</v>
       </c>
       <c r="D6" t="n">
-        <v>4.379861042082519</v>
+        <v>3.343363668560329</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.41985672600184</v>
+        <v>88.11630757449309</v>
       </c>
       <c r="D7" t="n">
-        <v>4.460350510635022</v>
+        <v>3.645403857676883</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.87066504386493</v>
+        <v>86.43591097296394</v>
       </c>
       <c r="D8" t="n">
-        <v>3.996524078617253</v>
+        <v>3.759535633534929</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.21636613393839</v>
+        <v>85.50072201594931</v>
       </c>
       <c r="D9" t="n">
-        <v>3.565056933996903</v>
+        <v>3.639509325306892</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.37349587201723</v>
+        <v>84.87533520397227</v>
       </c>
       <c r="D10" t="n">
-        <v>4.046432008191037</v>
+        <v>3.439580258075338</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.3722538989602</v>
+        <v>83.48749058954238</v>
       </c>
       <c r="D11" t="n">
-        <v>3.901242649147451</v>
+        <v>3.547574965073175</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.38397321761572</v>
+        <v>83.08513487274767</v>
       </c>
       <c r="D12" t="n">
-        <v>3.753192436990926</v>
+        <v>3.464846901446635</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.02398622551796</v>
+        <v>81.40875549668516</v>
       </c>
       <c r="D13" t="n">
-        <v>3.933530822182193</v>
+        <v>3.432389859819415</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.18469677518959</v>
+        <v>80.16743467668552</v>
       </c>
       <c r="D14" t="n">
-        <v>4.300142454208748</v>
+        <v>3.238324243441369</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.46980338158205</v>
+        <v>79.71123593123065</v>
       </c>
       <c r="D15" t="n">
-        <v>4.408808390682032</v>
+        <v>3.025676435162687</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.83000976719319</v>
+        <v>78.26540819226663</v>
       </c>
       <c r="D16" t="n">
-        <v>3.987986351526195</v>
+        <v>3.485396021644299</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.08701507891709</v>
+        <v>77.66008403519682</v>
       </c>
       <c r="D17" t="n">
-        <v>3.822522601094084</v>
+        <v>4.124371311818245</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.18223760819274</v>
+        <v>76.19070352442145</v>
       </c>
       <c r="D18" t="n">
-        <v>3.701825875748503</v>
+        <v>3.596505134790274</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.7073008592329</v>
+        <v>74.61354200771076</v>
       </c>
       <c r="D19" t="n">
-        <v>3.499516908705643</v>
+        <v>3.981319123544357</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.73881159259126</v>
+        <v>74.53039482173912</v>
       </c>
       <c r="D20" t="n">
-        <v>3.888411623722328</v>
+        <v>3.638452159666843</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.89309081048309</v>
+        <v>73.18724552754321</v>
       </c>
       <c r="D21" t="n">
-        <v>3.924595105893583</v>
+        <v>3.875018322309931</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.87424477201118</v>
+        <v>72.04519385309067</v>
       </c>
       <c r="D22" t="n">
-        <v>3.978271506728015</v>
+        <v>3.36712145486293</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.2856318299883</v>
+        <v>70.15292140680745</v>
       </c>
       <c r="D23" t="n">
-        <v>4.103245334722209</v>
+        <v>3.417990794344841</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.93059508150523</v>
+        <v>70.54021014318865</v>
       </c>
       <c r="D24" t="n">
-        <v>3.776127594260208</v>
+        <v>3.419804511360018</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.42458083690484</v>
+        <v>68.59052216175546</v>
       </c>
       <c r="D25" t="n">
-        <v>3.543169877494608</v>
+        <v>3.53879430785066</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.92632713792</v>
+        <v>67.98198138425896</v>
       </c>
       <c r="D26" t="n">
-        <v>3.623616929540977</v>
+        <v>4.04239988833353</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.9288589208933</v>
+        <v>66.53498923389007</v>
       </c>
       <c r="D27" t="n">
-        <v>3.698355702577039</v>
+        <v>3.434733434483704</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.4841613192725</v>
+        <v>65.23945598506809</v>
       </c>
       <c r="D28" t="n">
-        <v>3.475887794340229</v>
+        <v>3.450341145416838</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.77675939748341</v>
+        <v>64.37066786913678</v>
       </c>
       <c r="D29" t="n">
-        <v>3.91239782792411</v>
+        <v>3.70714908732077</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.09566866632355</v>
+        <v>63.09946237120055</v>
       </c>
       <c r="D30" t="n">
-        <v>3.729408705654817</v>
+        <v>3.463881865356547</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.60397412366303</v>
+        <v>62.0148719140959</v>
       </c>
       <c r="D31" t="n">
-        <v>3.800088064542424</v>
+        <v>4.093880338528464</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.57378064924729</v>
+        <v>60.98535468233088</v>
       </c>
       <c r="D32" t="n">
-        <v>3.651162352603285</v>
+        <v>3.764544787187186</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.53960690947493</v>
+        <v>59.40221808533556</v>
       </c>
       <c r="D33" t="n">
-        <v>3.362166857086804</v>
+        <v>3.815362341748592</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.90209457655367</v>
+        <v>58.31385661023232</v>
       </c>
       <c r="D34" t="n">
-        <v>4.017738448276085</v>
+        <v>3.35883199228939</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.00262180416611</v>
+        <v>58.13208819941827</v>
       </c>
       <c r="D35" t="n">
-        <v>3.725488984574147</v>
+        <v>3.424776972969497</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.24947991025714</v>
+        <v>56.69340175880842</v>
       </c>
       <c r="D36" t="n">
-        <v>3.466999513438458</v>
+        <v>3.628516126414549</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.02979641838817</v>
+        <v>55.023129315981</v>
       </c>
       <c r="D37" t="n">
-        <v>4.224712026557008</v>
+        <v>3.524578684459018</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.04614629598768</v>
+        <v>55.22376664273284</v>
       </c>
       <c r="D38" t="n">
-        <v>3.224199608557948</v>
+        <v>3.396844790522077</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.55593623179783</v>
+        <v>53.18558656579301</v>
       </c>
       <c r="D39" t="n">
-        <v>3.670308515337459</v>
+        <v>3.87892081423471</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.74133231624344</v>
+        <v>52.10854063807815</v>
       </c>
       <c r="D40" t="n">
-        <v>3.883597466667778</v>
+        <v>3.488747025646205</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.92708029551876</v>
+        <v>51.78963384184319</v>
       </c>
       <c r="D41" t="n">
-        <v>3.401727209709914</v>
+        <v>3.458427608041732</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.14258400567282</v>
+        <v>49.95107430447693</v>
       </c>
       <c r="D42" t="n">
-        <v>3.745836515168758</v>
+        <v>3.673217156249828</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.52510073594748</v>
+        <v>49.39225752728624</v>
       </c>
       <c r="D43" t="n">
-        <v>3.676862332008283</v>
+        <v>3.224342581229473</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.37124535171107</v>
+        <v>49.06830981868868</v>
       </c>
       <c r="D44" t="n">
-        <v>3.954807546375826</v>
+        <v>3.826148736776975</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.57147576677508</v>
+        <v>48.25368595136991</v>
       </c>
       <c r="D45" t="n">
-        <v>3.971686953944402</v>
+        <v>3.611815166473659</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.21244451663789</v>
+        <v>46.66447737517755</v>
       </c>
       <c r="D46" t="n">
-        <v>4.169906808675518</v>
+        <v>3.720623224902288</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.32157346043462</v>
+        <v>45.56235258414955</v>
       </c>
       <c r="D47" t="n">
-        <v>3.890700495677842</v>
+        <v>3.464384813200949</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.14150305210033</v>
+        <v>44.06038690704934</v>
       </c>
       <c r="D48" t="n">
-        <v>3.778539894099595</v>
+        <v>3.300201026345724</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.59741026438432</v>
+        <v>43.19578549921714</v>
       </c>
       <c r="D49" t="n">
-        <v>3.600239224852512</v>
+        <v>3.959205896994697</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.15825348281668</v>
+        <v>42.19455318088366</v>
       </c>
       <c r="D50" t="n">
-        <v>3.342473634233265</v>
+        <v>3.953564943668065</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.2476694329398</v>
+        <v>40.98100391972651</v>
       </c>
       <c r="D51" t="n">
-        <v>3.603145400525094</v>
+        <v>3.508800720272626</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.17492656705834</v>
+        <v>39.74883116128265</v>
       </c>
       <c r="D52" t="n">
-        <v>3.862921552564572</v>
+        <v>3.515772093440372</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.46095996234909</v>
+        <v>39.23109035814126</v>
       </c>
       <c r="D53" t="n">
-        <v>3.521284169356459</v>
+        <v>3.605428406393102</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.19054445935076</v>
+        <v>38.43666266271656</v>
       </c>
       <c r="D54" t="n">
-        <v>4.151631627508475</v>
+        <v>3.467485277329186</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.94797805312636</v>
+        <v>37.10216090688485</v>
       </c>
       <c r="D55" t="n">
-        <v>4.124893994572219</v>
+        <v>3.087836886283805</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.12119367872694</v>
+        <v>36.33914925339295</v>
       </c>
       <c r="D56" t="n">
-        <v>3.568504814317519</v>
+        <v>4.137429993746181</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.81801435553658</v>
+        <v>34.87980240322926</v>
       </c>
       <c r="D57" t="n">
-        <v>3.480523053989216</v>
+        <v>3.574875039464698</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.64640429029317</v>
+        <v>34.39466415341654</v>
       </c>
       <c r="D58" t="n">
-        <v>3.527511005413464</v>
+        <v>3.765604869343736</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.03868334420911</v>
+        <v>33.21437397810929</v>
       </c>
       <c r="D59" t="n">
-        <v>3.969623583049045</v>
+        <v>3.676753727252814</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.90721121301171</v>
+        <v>32.54696192667592</v>
       </c>
       <c r="D60" t="n">
-        <v>3.757160333318448</v>
+        <v>3.641269059847311</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.83414729993991</v>
+        <v>31.58641133165996</v>
       </c>
       <c r="D61" t="n">
-        <v>3.482969809917837</v>
+        <v>4.269912471490383</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.43608824112687</v>
+        <v>29.73948664468542</v>
       </c>
       <c r="D62" t="n">
-        <v>3.420580260227857</v>
+        <v>3.940053960192196</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.81874227062464</v>
+        <v>29.5433596856033</v>
       </c>
       <c r="D63" t="n">
-        <v>3.744984892832467</v>
+        <v>3.124437590024563</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.32407533818673</v>
+        <v>27.63003997254485</v>
       </c>
       <c r="D64" t="n">
-        <v>4.101144743302993</v>
+        <v>3.262678618943558</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.73839048992863</v>
+        <v>26.88202955627735</v>
       </c>
       <c r="D65" t="n">
-        <v>4.187896074855023</v>
+        <v>3.531281924567251</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.69866038137082</v>
+        <v>26.03961366977636</v>
       </c>
       <c r="D66" t="n">
-        <v>3.654702181425248</v>
+        <v>3.646409406440623</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.87669584190283</v>
+        <v>24.90434355780862</v>
       </c>
       <c r="D67" t="n">
-        <v>3.532166618652813</v>
+        <v>3.284622754077514</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.07833720098972</v>
+        <v>24.3162346819277</v>
       </c>
       <c r="D68" t="n">
-        <v>3.710295869818863</v>
+        <v>3.977886401829414</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.85111774886462</v>
+        <v>22.96796503487278</v>
       </c>
       <c r="D69" t="n">
-        <v>3.715380538481356</v>
+        <v>3.408013553775848</v>
       </c>
     </row>
   </sheetData>
